--- a/Output_testing/R1_201907/Country/HKD/MN/HONDURAS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/HONDURAS_201907_HKD_MN.xlsx
@@ -810,136 +810,449 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>346.730746</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>49.29163966274264</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>265.253856</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>54.84691429366955</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>396.715112</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>63.24889321363538</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>180.098899</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>54.46573687732587</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-29.46055094599698</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>65.63357600000001</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.330544277631594</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>32.348639</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.688773756223383</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>69.976069</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.15639102674511</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>39.861383</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>12.05492987519214</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-15.61410130474152</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>7.496342</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.195153197619782</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>18.993098</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.74391672518367</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>515.8719895613917</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>17.904719</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.545355343857109</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>8.457988</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.748870119848081</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>17.457226</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.783232071785304</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>16.421724</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.966278547078</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>164.3525635804196</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>107.458142</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>15.27637244575891</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>59.680001</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>12.34011806370541</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>34.342435</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.475266603938229</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>12.827612</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.879342649154274</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-33.53350226807981</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>22.301008</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.170336819371482</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>28.07377</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.804853057782471</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>19.095643</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.044447384078235</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>11.979627</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.622893952674907</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-6.652356552035876</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>3.46561</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.5525274691580363</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>5.815471</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.758722096928084</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>94.95815025010619</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>6.627948</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.9422366729467822</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>2.536047</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5243820186113252</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>4.355114</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.6943424437010316</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>5.174632</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.564918755827545</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>153.4721790213955</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>8.530976000000001</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.212773311321822</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>7.608952</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.573313747448955</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>6.90798</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.101349749797101</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>4.860449</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.469903135497023</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>19.43649366848474</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.6945</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.5252143481213019</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>3.957095</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.8182141198237975</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.603154</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.5744563181104206</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.436919</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.341818657092445</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>162.9282217147002</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>124.215604</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.65863242153303</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>75.32832999999999</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.57574514353245</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>63.813859</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.17394052143137</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>30.194764</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.131538728046038</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-24.70827063233304</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1284,555 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>3.163444327009647</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>7.046672914271686</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>15.53643677626378</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>66.30330896249339</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>459.5978124643956</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>2.212578334347543</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.536368</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>31.65316822030598</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>35.3573919918151</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>12.83100424419798</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.9374400000000001</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>41.70002882490472</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.658224</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>38.8443661788971</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>31.08403478584383</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>11.22606563927557</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-79.26391382405745</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2.384727070855886</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>6.291826102556717</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.808507340061077</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>8.458157391708154</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>81.48534352913914</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.9820040070176188</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.079177771115764</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.181463762324913</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.6712021408719355</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.9401504618427916</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.221286952208219</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>13.5566017928379</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>13.14463835100996</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>4.346835325303446</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.642794028740176</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>METALWORKING MACHINERY (OTHER THAN MACHINE-TOOLS), AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>0.76095</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>33.84924574832656</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.480167753828197</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1864,449 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>346.730746</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>49.44967400358647</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>265.253856</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>55.0397612141157</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>396.715112</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>63.37926141239044</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>180.098899</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>54.58802848058838</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-29.46055094599698</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>65.56246</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.350316668695939</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>32.229232</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>6.687515349048636</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>69.775621</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.14736290552723</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>39.370224</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.93312630411552</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-16.49872514406328</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>7.496342</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.197616639455574</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>18.993098</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.756813508108154</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>515.8719895613917</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>17.871444</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.548770450755906</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>8.457988</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.755019312035396</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>17.457226</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.788968851252581</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>16.421724</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.977429303509299</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>164.3525635804196</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>107.458142</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>15.32535015204883</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>59.680001</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>12.3835070819788</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>34.342435</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.486552187109591</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>12.827612</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.888052914715138</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-33.53350226807981</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>22.301008</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.18050126293494</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>28.07377</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.825263468290561</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>19.095643</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.050722578812888</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>11.979627</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.631028415464247</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-6.652356552035876</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>3.46561</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.5536663351089949</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>5.815471</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.762670945456672</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>94.95815025010619</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>6.627948</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.9452575858753609</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.536047</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5262257952162418</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>4.355114</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.6957736177359469</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>5.174632</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.568432458837874</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>153.4721790213955</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>8.477366</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.209015900508251</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>7.502336</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.55672301324835</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6.820138</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.089586194464348</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>4.797793</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.454212448727782</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>18.90559014215754</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3.679411</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.5247462954300859</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>3.941164</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.8177853801517181</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.53579</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.5648783016597462</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>4.436919</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.344831434744438</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>173.8605600263681</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>122.140638</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>17.41932263396701</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>73.87576799999999</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.32910658320236</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>62.879333</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.04561097648266</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>30.007803</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.095373785732502</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-24.27120142680374</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2338,461 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>14.06205</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>28.53917953499284</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>30.530067</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>35.64422439382856</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>33.366738</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>36.88700587943715</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>42.198957</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>44.84999347001965</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>103.4561055745362</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>14.526103</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>29.48098331756736</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>21.207826</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>24.760394690561</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>21.093182</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>23.31856139038937</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>21.727418</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>23.09238485255424</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>3.006829410564982</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.1431766859310454</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.07738516158099122</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>8.264614</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.783816242952</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>4.266015</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>8.657953000022934</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>12.267453</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>14.32240051987915</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>12.860019</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>14.21678068928025</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>7.354232</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.816241931690623</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-12.88739101939267</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.58907</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.25456342131225</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.067091</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.413353873296887</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>4.610461</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.096875277826548</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.265073</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.4701924677697</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-0.1123366919108082</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>0.691822</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.404065002205071</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.350668</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.576921310836417</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>3.656258</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.042001658739883</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.582236</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.744458061796401</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>20.55374959324998</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.252454718127976</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2.279895</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.423123298102615</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>3.803589</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>7.719451242765023</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>4.181321</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>4.881743102189316</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>3.557834</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.933193699547777</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.603536</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.704273855132046</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-10.41918522673185</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.1163583389534061</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>2.019023</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.232034587010538</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.573529</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.672381745712022</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>9.303437003550297</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.617787</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.253809658434199</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>3.496306</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>4.081979761573703</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>3.89055</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.301012005556077</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.311962</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.394382499380587</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-59.47453756544265</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>8.659020999999999</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>17.57363648374691</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>10.38396</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>12.12339954368721</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>5.104191</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.642694932503447</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1.927652</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>2.048751574890117</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>72.57867265906872</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
